--- a/python/quiz/kérdések.xlsx
+++ b/python/quiz/kérdések.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tanulas\learning\python\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE3F157-BC68-4B30-9F11-0C97D282663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E734284-244E-4156-A536-21B574CD8D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36330" yWindow="3705" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="True_False_Statements" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="483">
   <si>
     <t>True/False</t>
   </si>
@@ -1466,6 +1466,9 @@
   </si>
   <si>
     <t>Words</t>
+  </si>
+  <si>
+    <t>Az (-végtelentől végtelenig)  a konvolúciós integrál általános kifejezése.</t>
   </si>
 </sst>
 </file>
@@ -1830,12 +1833,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="51" customWidth="1"/>
     <col min="4" max="4" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3937,7 +3941,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>482</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
